--- a/output/google_maps_data_ATM_Gunungkidul.xlsx
+++ b/output/google_maps_data_ATM_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>-7.972868</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.972868</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.602144</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb368d2941351:0x103924bd00ba3693!8m2!3d-7.9728684!4d110.602144!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11bc7sw039?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb368d2941351:0x103924bd00ba3693!8m2!3d-7.9728684!4d110.602144!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11bc7sw039?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -544,25 +538,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-7.96712</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.96712</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.601861</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Wonosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343ab4dccd7:0xaae98384d5165bf5!8m2!3d-7.9671201!4d110.6018607!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g8wp9d2x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Wonosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343ab4dccd7:0xaae98384d5165bf5!8m2!3d-7.9671201!4d110.6018607!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g8wp9d2x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -589,25 +582,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>-7.974286</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.974286</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.601223</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM+KK+Wonosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb36926ea01af:0x5f01c78a87c16414!8m2!3d-7.9742865!4d110.6012233!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1ygbbbpq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM+KK+Wonosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb36926ea01af:0x5f01c78a87c16414!8m2!3d-7.9742865!4d110.6012233!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1ygbbbpq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -630,25 +622,24 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>-7.971175</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.971175</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.603581</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Atm+Bank+Mandiri/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb36843ca1327:0x2454b756500beb32!8m2!3d-7.9711754!4d110.6035813!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11fsls1j6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Atm+Bank+Mandiri/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb36843ca1327:0x2454b756500beb32!8m2!3d-7.9711754!4d110.6035813!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11fsls1j6d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -667,25 +658,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-8.039039000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.039039000000001</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.4913</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BPD+DIY+Kas+Saptosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7baf8a211f2ad7:0x1bcfaf3ee1cc2fe1!8m2!3d-8.0390393!4d110.4912999!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11fr3ykdp_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BPD+DIY+Kas+Saptosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7baf8a211f2ad7:0x1bcfaf3ee1cc2fe1!8m2!3d-8.0390393!4d110.4912999!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11fr3ykdp_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -704,25 +694,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>-7.966539</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.966539</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.601211</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343b17e707b:0x33931b8b55cfabc9!8m2!3d-7.9665391!4d110.6012106!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzvmqzkw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343b17e707b:0x33931b8b55cfabc9!8m2!3d-7.9665391!4d110.6012106!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzvmqzkw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -741,25 +730,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>-7.966745</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.966745</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.60567</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Mandiri/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb34409f86199:0x9c35df5d1238ae0c!8m2!3d-7.9667452!4d110.6056696!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzr_qr52?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Mandiri/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb34409f86199:0x9c35df5d1238ae0c!8m2!3d-7.9667452!4d110.6056696!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzr_qr52?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -779,22 +767,21 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.963876</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.963876</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.601204</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb34479ba6a37:0x8111e458692c28e6!8m2!3d-7.9638759!4d110.6012042!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11dxhxq6dj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -817,25 +804,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-7.963919</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.963919</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.601196</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+PEMDA+GUNUNG+KIDUL/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb381b0bd8f19:0x3e3df98dd3c00a6d!8m2!3d-7.9639191!4d110.6011961!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11rqz44n1g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+PEMDA+GUNUNG+KIDUL/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb381b0bd8f19:0x3e3df98dd3c00a6d!8m2!3d-7.9639191!4d110.6011961!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11rqz44n1g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -858,25 +844,24 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.952044</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.952044</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.587434</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Gunungkidul+Playen/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb33486c83573:0x50a8648154fa1657!8m2!3d-7.9520436!4d110.587434!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11c31wd38r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Gunungkidul+Playen/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb33486c83573:0x50a8648154fa1657!8m2!3d-7.9520436!4d110.587434!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11c31wd38r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -895,25 +880,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>-7.998086</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.998086</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.592637</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+SPBU+Duwet/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3a27c2d7f5f:0x585f45f49d2afa8a!8m2!3d-7.9980857!4d110.5926369!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f4_5xsqw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+SPBU+Duwet/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3a27c2d7f5f:0x585f45f49d2afa8a!8m2!3d-7.9980857!4d110.5926369!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f4_5xsqw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -936,25 +920,24 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>-7.972834</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.972834</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.607762</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3665e6a721b:0x4d9cddc9a211e69a!8m2!3d-7.9728344!4d110.6077615!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c6_qxkw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3665e6a721b:0x4d9cddc9a211e69a!8m2!3d-7.9728344!4d110.6077615!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c6_qxkw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -973,25 +956,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.964875</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.964875</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.602276</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+CABANG+WONOSARI/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343778cbb7b:0x74d6267390de89f0!8m2!3d-7.9648752!4d110.6022761!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f4_yf8pq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+CABANG+WONOSARI/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343778cbb7b:0x74d6267390de89f0!8m2!3d-7.9648752!4d110.6022761!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f4_yf8pq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1014,25 +996,24 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.966747</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.966747</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.605683</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb35d28eca77d:0xa13d0450d6d3da32!8m2!3d-7.9667474!4d110.6056829!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c709zccl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb35d28eca77d:0xa13d0450d6d3da32!8m2!3d-7.9667474!4d110.6056829!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c709zccl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1059,25 +1040,24 @@
           <t>1 500 888</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.962465</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.962465</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.597461</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BCA+KCP+Wonosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343ab4eccad:0x4f9b13eb61a42c88!8m2!3d-7.962465!4d110.597461!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F1pzyfxj_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BCA+KCP+Wonosari/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb343ab4eccad:0x4f9b13eb61a42c88!8m2!3d-7.962465!4d110.597461!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F1pzyfxj_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1096,25 +1076,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-8.002496000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.002496000000001</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.649421</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Atm/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb4442dc25261:0x9cb2d3f5d04fde7b!8m2!3d-8.002496!4d110.6494212!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g6b4czmj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Atm/@-7.7855416,110.1186351,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb4442dc25261:0x9cb2d3f5d04fde7b!8m2!3d-8.002496!4d110.6494212!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g6b4czmj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1133,25 +1112,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>-8.015542999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.015542999999999</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.419128</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Panggang/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bab8c1a30d7ab:0x1a6383af43fe3b93!8m2!3d-8.0155431!4d110.4191276!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11ggbbwhgc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Panggang/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bab8c1a30d7ab:0x1a6383af43fe3b93!8m2!3d-8.0155431!4d110.4191276!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11ggbbwhgc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1174,25 +1152,24 @@
           <t>1 500 017</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>-8.015527000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.015527000000001</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.419189</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BRI+Unit+Panggang+%2FATM/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bab8c19fc1987:0xc32cbb8f80d16520!8m2!3d-8.0155268!4d110.4191888!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11cm06tyxf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BRI+Unit+Panggang+%2FATM/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bab8c19fc1987:0xc32cbb8f80d16520!8m2!3d-8.0155268!4d110.4191888!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11cm06tyxf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1219,25 +1196,24 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.6</v>
+        <v>-7.9608</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.9608</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.598943</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3465702aee3:0x48d1740fddd3a422!8m2!3d-7.9608002!4d110.5989425!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11b5wf4d8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3465702aee3:0x48d1740fddd3a422!8m2!3d-7.9608002!4d110.5989425!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11b5wf4d8w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1256,25 +1232,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>-7.966802</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.966802</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.601812</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3439568cc17:0xd42f59bbb3fefe02!8m2!3d-7.9668018!4d110.6018121!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11bc7rs3pz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3439568cc17:0xd42f59bbb3fefe02!8m2!3d-7.9668018!4d110.6018121!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11bc7rs3pz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1293,25 +1268,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.972442</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.972442</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.610439</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3674b9e60a1:0xdef2f2ebf8c3033f!8m2!3d-7.9724424!4d110.6104391!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzrk85pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3674b9e60a1:0xdef2f2ebf8c3033f!8m2!3d-7.9724424!4d110.6104391!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzrk85pj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1334,25 +1308,24 @@
           <t>1 500 017</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.970261</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.970261</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.60546</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb367e6bfa1ff:0xa0cbbd1607a1d6a4!8m2!3d-7.9702608!4d110.6054598!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g6wckq08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb367e6bfa1ff:0xa0cbbd1607a1d6a4!8m2!3d-7.9702608!4d110.6054598!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g6wckq08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1379,25 +1352,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-7.998325</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.998325</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.592225</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+SPBU+KARANGREJEK/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3262dc85f71:0xab9ad73b9f9ae2a6!8m2!3d-7.9983255!4d110.5922252!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11rqz42j1l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+SPBU+KARANGREJEK/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3262dc85f71:0xab9ad73b9f9ae2a6!8m2!3d-7.9983255!4d110.5922252!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11rqz42j1l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1416,25 +1388,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>-7.948764</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.948764</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.585694</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4cccc66f1099:0xf2c2cff958501ab9!8m2!3d-7.9487642!4d110.5856938!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11b6zs68y4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4cccc66f1099:0xf2c2cff958501ab9!8m2!3d-7.9487642!4d110.5856938!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11b6zs68y4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1461,25 +1432,24 @@
           <t>(0274) 394433</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>-7.971149</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.971149</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.603552</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Wonosari/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb36926ea01af:0x7ff985a85fd4c0db!8m2!3d-7.9711495!4d110.6035515!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F12hlj8lck?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Wonosari/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb36926ea01af:0x7ff985a85fd4c0db!8m2!3d-7.9711495!4d110.6035515!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F12hlj8lck?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1502,25 +1472,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F27" t="n">
-        <v>3.8</v>
+        <v>-7.998278</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.998278</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.5922</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY+DUWETSARI/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3a26347e8fb:0x9720c7c1af7f56f9!8m2!3d-7.9982779!4d110.5922003!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g6q_mj2l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY+DUWETSARI/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3a26347e8fb:0x9720c7c1af7f56f9!8m2!3d-7.9982779!4d110.5922003!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11g6q_mj2l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1539,25 +1508,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.837255</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.837255</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.701676</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+Ngawen/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a49dcc185ffcb:0x7c6ae8fb969dac01!8m2!3d-7.8372555!4d110.7016764!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hctkc8lh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+Ngawen/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a49dcc185ffcb:0x7c6ae8fb969dac01!8m2!3d-7.8372555!4d110.7016764!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hctkc8lh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1576,25 +1544,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.880719</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.880719</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.618931</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Nglipar/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4bf6772118f7:0xf522a8773263674e!8m2!3d-7.8807194!4d110.6189305!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hcnhddjs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Nglipar/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4bf6772118f7:0xf522a8773263674e!8m2!3d-7.8807194!4d110.6189305!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hcnhddjs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1617,25 +1584,24 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F30" t="n">
-        <v>3.9</v>
+        <v>-7.952713</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.952713</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.678229</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BCA+Alfamart+Karangmojo/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb5304b16b6cf:0x817ebea91319a825!8m2!3d-7.9527127!4d110.6782292!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11ckvp938k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BCA+Alfamart+Karangmojo/@-8.0155431,109.8423454,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb5304b16b6cf:0x817ebea91319a825!8m2!3d-7.9527127!4d110.6782292!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11ckvp938k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1658,25 +1624,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.848804</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.848804</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.483266</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4c12de357fd5:0x65f27fff2e62201f!8m2!3d-7.848804!4d110.4832662!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzwp_xhp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4c12de357fd5:0x65f27fff2e62201f!8m2!3d-7.848804!4d110.4832662!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzwp_xhp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1695,25 +1660,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>-7.977547</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.977547</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.71147</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BANK+BPD+DIY+Ponjong/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bca8564516f79:0x560ab940bfcfdb9b!8m2!3d-7.9775474!4d110.7114704!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzthw3kf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BANK+BPD+DIY+Ponjong/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bca8564516f79:0x560ab940bfcfdb9b!8m2!3d-7.9775474!4d110.7114704!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzthw3kf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1732,25 +1696,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>-8.135413</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.135413</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.57686</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Drini+Park/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bbb00772555e3:0xb501ae7850b8da35!8m2!3d-8.1354133!4d110.5768598!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11y4nh7zzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Drini+Park/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bbb00772555e3:0xb501ae7850b8da35!8m2!3d-8.1354133!4d110.5768598!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11y4nh7zzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1769,25 +1732,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>-7.944472</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.944472</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.551938</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4d2e9e86f2af:0x5106b8e2d9a0b77c!8m2!3d-7.9444717!4d110.5519377!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pztxp8h_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4d2e9e86f2af:0x5106b8e2d9a0b77c!8m2!3d-7.9444717!4d110.5519377!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pztxp8h_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1806,25 +1768,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>-7.91461</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.91461</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.555677</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI+Gading/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4d08c9d74cc1:0x155353de252ae208!8m2!3d-7.9146104!4d110.5556767!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hcv928jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI+Gading/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4d08c9d74cc1:0x155353de252ae208!8m2!3d-7.9146104!4d110.5556767!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hcv928jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1843,25 +1804,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.8</v>
+        <v>-7.96698</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.96698</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.601963</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb342ff89d3ab:0x61fe66267cd9c2ac!8m2!3d-7.9669797!4d110.6019629!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c6z4_4cr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb342ff89d3ab:0x61fe66267cd9c2ac!8m2!3d-7.9669797!4d110.6019629!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c6z4_4cr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1880,25 +1840,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>-7.952701</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.952701</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.674733</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb52e4bb06911:0x5619d5f91019ab6b!8m2!3d-7.9527007!4d110.6747332!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f3njwfb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb52e4bb06911:0x5619d5f91019ab6b!8m2!3d-7.9527007!4d110.6747332!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f3njwfb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1921,25 +1880,24 @@
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F38" t="n">
-        <v>2.9</v>
+        <v>-7.955011</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.955011</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.678779</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb5305979c5b3:0xfd0aef91db96402f!8m2!3d-7.9550115!4d110.6787794!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11gf5zfj77?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb5305979c5b3:0xfd0aef91db96402f!8m2!3d-7.9550115!4d110.6787794!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11gf5zfj77?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1958,25 +1916,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.975811</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.975811</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.708934</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+AgenBRILink/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb5a3bf745a95:0x73607a1cc3a5379f!8m2!3d-7.9758108!4d110.7089342!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11p0zp07f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+AgenBRILink/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb5a3bf745a95:0x73607a1cc3a5379f!8m2!3d-7.9758108!4d110.7089342!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11p0zp07f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1995,25 +1952,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F40" t="n">
-        <v>3.7</v>
+        <v>-7.848487</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.848487</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.482535</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a51a3a1139d07:0x8a9e551c97db7703!8m2!3d-7.8484868!4d110.4825346!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f4qnq_th?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a51a3a1139d07:0x8a9e551c97db7703!8m2!3d-7.8484868!4d110.4825346!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f4qnq_th?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2036,25 +1992,24 @@
           <t>(0274) 4390301</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.8</v>
+        <v>-7.865544</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.865544</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.734918</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+Semin/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a35edfa607b55:0xb9f5a2b436b129e8!8m2!3d-7.8655443!4d110.7349184!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzsd5mbz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+Semin/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a35edfa607b55:0xb9f5a2b436b129e8!8m2!3d-7.8655443!4d110.7349184!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzsd5mbz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2073,25 +2028,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>-7.999075</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.999075</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.651597</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Atm+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb445699a1133:0xf0b919f46eec762e!8m2!3d-7.9990746!4d110.6515972!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c31ng9y_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Atm+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb445699a1133:0xf0b919f46eec762e!8m2!3d-7.9990746!4d110.6515972!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11c31ng9y_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2110,25 +2064,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.8</v>
+        <v>-8.089668</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.089668</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.627947</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Tepus/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb7379ba70aa5:0xadf89678ef898328!8m2!3d-8.089668!4d110.6279472!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hbtv6txg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Tepus/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb7379ba70aa5:0xadf89678ef898328!8m2!3d-8.089668!4d110.6279472!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hbtv6txg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2151,25 +2104,24 @@
           <t>0857-0134-7219</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.967728</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.967728</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.59813</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DDua+Cell+BRILink/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3afdb31262d:0x58b56420dd7a5047!8m2!3d-7.9677282!4d110.5981304!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11ld5xz53_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DDua+Cell+BRILink/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb3afdb31262d:0x58b56420dd7a5047!8m2!3d-7.9677282!4d110.5981304!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11ld5xz53_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2192,25 +2144,24 @@
           <t>(0274) 391518</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.2</v>
+        <v>-7.961131</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.961131</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.59591</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb347e9d57e79:0x8b653ff57cbf80fb!8m2!3d-7.9611308!4d110.5959095!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzy67zsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb347e9d57e79:0x8b653ff57cbf80fb!8m2!3d-7.9611308!4d110.5959095!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F1pzy67zsv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2233,25 +2184,24 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>-7.949534</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.949534</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.585624</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+534A+Indomaret+Siyono/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4cccb56675d3:0x9fe9aa9575df972b!8m2!3d-7.9495336!4d110.5856242!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11gfjw2bg7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+534A+Indomaret+Siyono/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4cccb56675d3:0x9fe9aa9575df972b!8m2!3d-7.9495336!4d110.5856242!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11gfjw2bg7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2274,25 +2224,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.6</v>
+        <v>-7.848728</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.848728</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.483108</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a51a3063b203b:0x97817e430009b50a!8m2!3d-7.8487278!4d110.4831082!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11fzfd_t2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a51a3063b203b:0x97817e430009b50a!8m2!3d-7.8487278!4d110.4831082!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F11fzfd_t2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2311,25 +2260,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.3</v>
+        <v>-7.961972</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.961972</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.604369</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb344d0dd2b09:0x4671c8843a977c51!8m2!3d-7.9619718!4d110.6043688!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11dxkfn6jg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb344d0dd2b09:0x4671c8843a977c51!8m2!3d-7.9619718!4d110.6043688!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11dxkfn6jg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2348,25 +2296,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>-7.876868</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.876868</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.539142</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4de64f14f2b7:0x1fb8c35fcfc28434!8m2!3d-7.8768684!4d110.5391423!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f32_ttjb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4de64f14f2b7:0x1fb8c35fcfc28434!8m2!3d-7.8768684!4d110.5391423!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f32_ttjb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2385,25 +2332,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-8.039348</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.039348</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.456418</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TOKO+MARITANI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7baf26c01c60e5:0x2094c15e9f8dbcb0!8m2!3d-8.0393481!4d110.4564177!15sCg9BVE0gR3VudW5na2lkdWySAQRmYXJt4AEA!16s%2Fg%2F11p4ytwfj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TOKO+MARITANI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7baf26c01c60e5:0x2094c15e9f8dbcb0!8m2!3d-8.0393481!4d110.4564177!15sCg9BVE0gR3VudW5na2lkdWySAQRmYXJt4AEA!16s%2Fg%2F11p4ytwfj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2422,25 +2368,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.5</v>
+        <v>-7.952611</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.952611</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.674208</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb52e520c38a7:0x95ed7461556177a5!8m2!3d-7.9526108!4d110.6742079!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f3njxn7j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb52e520c38a7:0x95ed7461556177a5!8m2!3d-7.9526108!4d110.6742079!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11f3njxn7j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2463,25 +2408,24 @@
           <t>0878-3344-5584</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>-7.920638</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.920638</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.685164</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nur+Cell/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4bdeadbd7281:0x458775f0490c5392!8m2!3d-7.920638!4d110.685164!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11gmv62mwz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nur+Cell/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4bdeadbd7281:0x458775f0490c5392!8m2!3d-7.920638!4d110.685164!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11gmv62mwz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2508,25 +2452,24 @@
           <t>(0274) 391700</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F53" t="n">
-        <v>3.4</v>
+        <v>-7.966828</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.966828</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.601799</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BNI+WONOSARI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a579a4ea9dd2b:0xd129364d742e6701!8m2!3d-7.9668283!4d110.601799!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F1tf3dvxf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BNI+WONOSARI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a579a4ea9dd2b:0xd129364d742e6701!8m2!3d-7.9668283!4d110.601799!15sCg9BVE0gR3VudW5na2lkdWySAQRiYW5r4AEA!16s%2Fg%2F1tf3dvxf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2545,25 +2488,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>-7.944804</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.944804</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.553621</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BANK+%26+ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4d310d5ccc93:0xbdb510c5c7dc0d20!8m2!3d-7.9448038!4d110.5536214!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11clh09j7_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BANK+%26+ATM+BRI/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7a4d310d5ccc93:0xbdb510c5c7dc0d20!8m2!3d-7.9448038!4d110.5536214!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11clh09j7_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2582,25 +2524,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>-8.080876</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.080876</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.763334</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Rongkop/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bc8f436403dfd:0x6fb7b23207c8af12!8m2!3d-8.0808756!4d110.7633336!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hcv8xp_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Rongkop/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bc8f436403dfd:0x6fb7b23207c8af12!8m2!3d-8.0808756!4d110.7633336!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11hcv8xp_y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2627,25 +2568,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>-7.986233</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.986233</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.625801</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+SPBU+MIJAHAN/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb53d2f580185:0x56b5d74fba648d3a!8m2!3d-7.9862326!4d110.6258014!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11pzyk8r13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+SPBU+MIJAHAN/@-7.9766785,110.1354235,10z/data=!4m11!1m3!2m2!1sATM+Gunungkidul!6e2!3m6!1s0x2e7bb53d2f580185:0x56b5d74fba648d3a!8m2!3d-7.9862326!4d110.6258014!15sCg9BVE0gR3VudW5na2lkdWySAQNhdG3gAQA!16s%2Fg%2F11pzyk8r13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
